--- a/Etabs_COM/Etabs_COM.xlsx
+++ b/Etabs_COM/Etabs_COM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kysudo\source\repos\BIMSoftVN\K010\Etabs_COM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A70565-0A34-43E0-A566-7B230CA1DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1183CD3-A77C-43EB-BFF9-E8A0AC54B9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{9E99986A-9EB8-49D9-B902-1D33D2CF9466}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E99986A-9EB8-49D9-B902-1D33D2CF9466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Số nhịp</t>
+  </si>
+  <si>
+    <t>Rộng (m)</t>
+  </si>
+  <si>
+    <t>Cao (m)</t>
+  </si>
+  <si>
+    <t>Mái (m)</t>
+  </si>
+  <si>
+    <t>Bước nhịp (m)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,12 +427,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBED6F1-34BE-41C4-9FB0-ED7A2F3A108D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>